--- a/De-novo assembly/Interesting_FASTAs/Gene Info.xlsx
+++ b/De-novo assembly/Interesting_FASTAs/Gene Info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoamH\Desktop\DeNovoNovo\Interesting FASTAs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://weizmannacil-my.sharepoint.com/personal/noam_hadar_weizmann_ac_il/Documents/QuantumComputingLeftovers/qDeNovo/Interesting_FASTAs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E65331F-CE54-4139-B859-86160B827F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{2E65331F-CE54-4139-B859-86160B827F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA54C6B8-F6AA-4601-9F4C-936342867E12}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Gene Symbol</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Oxytocin receptor. Among other functions, it is involved in maternal bonding.</t>
+  </si>
+  <si>
+    <t>Corona Virus</t>
+  </si>
+  <si>
+    <t>The entire genome sequence of the single strand RNA virus</t>
   </si>
 </sst>
 </file>
@@ -157,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -167,6 +173,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -617,6 +626,20 @@
         <v>25</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>29903</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
     <sortCondition ref="C1:C11"/>
